--- a/story/主线剧情/main/level_main_07-01_end.xlsx
+++ b/story/主线剧情/main/level_main_07-01_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="1162">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>ko_KR</t>
   </si>
   <si>
@@ -2342,6 +2345,1166 @@
   </si>
   <si>
     <t xml:space="preserve">自らの決心を、ようやくウェイに叩きつけることができたせいか、落ちてゆくチェンの表情はとても晴れやかだった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wei Yenwu’s Office - 6:30 PM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Correct, Mr. Wei. Thirty-two hours from now, the core city will collide with Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Its urban identification code has not been changed, which means that the core of Chernobog, this nomadic city, is still Ursus territory.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  So attacking it would be an act of war...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Reunion holding Ursus hostage like this is the height of absurdity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You're unreasonably calm, Mr. Wei. Did it maybe occur to you what a peace-loving country the Empire is?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Ursus expansionism is driven by a lust for wealth, territory, and growth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  If it was profitable, the Empire would start a world war without a second thought. And they would’ve done it decades ago.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  But to provoke a war with Yen?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  The fact that Yen has not waged war for centuries does not mean they lack the capacity to fight. But I’d say a militaristic state might struggle to understand what it is that’s led to Yen’s prosperity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  A world war would leave both sides devastated. Yen would need a long time to recover, but Ursus, with its myriad internal conflicts, would take it even harder.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Ursus is no longer the world-devouring beast it once was. Only fools and madmen would wage a war that is costly, unprofitable, and doomed to fail.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Mr. Wei, as far as I know, fools and madmen are a dime a dozen in the nomadic cities of the world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Weeding out such people is one of my most important duties. And it’s a function of the State Council of Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Once the State Council responds, we’ll implement measures to put a stop to the Chernobog core.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  The diplomats will handle the rest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Our only responsibility is to take control of this crisis before it gets out of hand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You have that much faith in the Empire?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  No. I have faith in mutual interest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Fighting war after war teaches bitter lessons. And even though Ursus has won a lot of riches from its wars, it has been unable to fight the internal rot those wars have bred...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  It has not been able to integrate the peoples and lands it has conquered. And no nation can handle a rebellion while choking down the poison brewed by the mutual crisscrossing hate of its own populace.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  The Empire of Ursus is a rotting corpse posturing to look strong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And that is why you believe Ursus will act in its own interests and abide by their deal with you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I have no deal with the Chairman of the State Council, verbal or otherwise. But the two of us have about the same amount of sanity left.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Fumizuki, send the message for me. I have to make use of this time...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Um.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Fumizuki?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  There is another message here. For you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Dr. Kal'tsit, Amiya, Ch’en... you should hear this too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Fumizuki?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  You will change your mind when you hear this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I don’t think so.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  If you reject their help again, we’ll truly be isolated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Recording"]  “Chief Wei, you must act immediately upon receiving this message.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  What...? That’s my Messenger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Recording"]  “The following has been Arts encrypted.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  “Mr. Wei, Groups Three and Four are standing down. We are unable to get to the source of the matter.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  “I can’t even speculate on who the mastermind might be.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  “They were whispering from the parliamentary gallery, laughing at my miserable, helpless performance. But I found no evidence to hold them accountable.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  “If something happens in Chernobog, you must do everything you can to stop it. Otherwise, who knows what will happen?”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  “You have the wisdom and ability to stop it at its source. What we could not do, you must do in our stead.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  That’s the end.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...I want to hear the rest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  The rest is the Messenger’s soliloquy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  He’s my Messenger. Let me hear it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  “I was unable to meet Chairman Witte, and the Messenger he sent to liaise with me was waylaid by unknown forces. Fortunately, that Messenger is still safe and sound.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  “The Messenger slipped out of Deity Grypherburg in the dead of night, and someone secretly aided him. I believe there are forces within Ursus vying for supremacy.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  “I was attacked many times on the road after that. And there were many others who tried to protect me.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Witte tried to help them...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  “I reached the Ural Rift and commandeered a messaging station. What happens now, even I don’t know.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  “I hope to make it back to Lungmen, to enjoy the flavors of home once again.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  How is he now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Unclear if he’s alive or dead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It sounds like the Chairman of the State Council plans to stand by and see how this plays out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The State Council is at the heart of the Empire... But Chernobog is out on the periphery now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The borderlands mostly belong to the Army, and some remnants of the ancient nobility.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The Army hasn’t had a chance to engage in such operations since the Great Rebellion, but the Infected did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The ancient nobility, closely watched as they were, couldn’t have planned the Chernobog incident, but the Infected could.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Indeed, most of Reunion’s Infected had no training, they didn’t stand a chance against the Ursus Guard and the Chernobog riot police—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But a Catastrophe did. Chernobog failed to split the plates in time, and there was nothing they could do against a Catastrophe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Reunion had to infiltrate the city early to stop the security forces from mobilizing, while the Army ignored their maneuvering.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Lungmen and Rhodes Island anticipated Reunion’s actions, and the L.G.D. made a plan to annihilate them, but Chernobog...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even to this day, Chernobog, and the Ursus Court... haven’t said a word.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Now we know why.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Writing off the city and all its inhabitants, Ursus handed Chernobog over to Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And the Infected, who have lived so long on the threshold of death that they no longer fear it, would assume control of the city after the Catastrophe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  They didn’t have to do anything. They just... got out of the way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  They only had to let it happen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But after suffering a Catastrophe, Chernobog was just a dead city with nothing of value...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Which left the Infected heading for Lungmen! No matter who’s running Reunion, this... all the elements were perfectly aligned...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Give the order. The censors must stand down, use force if necessary. We will prepare for war. We must be absolutely certain we can disable that core before it’s too late.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  And no one is to know of this until the Chernobog core is stopped.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Mr. Wei?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  You’re going to start the war yourself?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Fumizuki, you’ve seen all Lungmen has been through, you must know. My brother wouldn’t stand for me starting a war with Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...I must take the initiative, we must take control of the situation, even if it costs all of Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Starting a war means being seen as an aggressor. It makes it more difficult to forge alliances.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The first one to enter a state of war is likely to find itself isolated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But... the worst part is, no one can know the truth until after the war is over, whatever it might be...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Some countries don’t even care about the truth. All they want is an excuse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But, Mr. Wei, I believe we can achieve peace through diplomatic means.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Thank you for the suggestion, Madam Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  But I’m afraid Witte and I are the last hope for peace between our two countries.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Whether our enemy is the Empire’s Third Army or the Emperor of Ursus, this war is going to happen eventually, even if we are certain to win it. Peace is no longer possible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  If Witte is too meek to use official channels to put a stop to this, it means he’ll face too much resistance and criticism for it, even if it works. He’s a politician. He has to look out for himself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Having pushed him this far, the Empire’s bureaucracy may be in some state of semi-paralysis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  A couple of divisions can hold Ursus hostage, but not Lungmen. This is not Ursus, you’re entitled to an emergency response to another moving city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Wouldn’t it then be too late to separate the city?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  If the core is not stopped, the collision will destroy Lungmen. And the conflict that follows will cause further, unfathomable disaster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But to stop the core...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Firing our guns or sending a spec ops team would indeed mean a declaration of war on Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Anything Witte might have been able to stop has been cut completely loose by the Chernobog core.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  An isolated city, cut off from all communication, left with nothing but identification codes, needs very little explanation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  As you say, Doctor. It’s up to Lungmen now. Only we can stop the Chernobog core.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Think carefully, Mr. Wei. There are serious consequences to an act of war.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  War is serious business, but the other choice, as far as Lungmen is concerned, would be far worse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Mr. Wei. Rhodes Island...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’ll go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Huh... Miss Ch’en?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Ch’en?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I’ll take care of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You’re a Lungmenite.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I can leave Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Superintendent Ch’en, don’t play the hero. This isn’t your responsibility.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  If Lungmen needs a traitor, let it be me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I’m sick of you, Wei Yenwu.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You and your precious city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I stopped being a Lungmenite even before you dug your claws into the slums.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Now is not the time for a debate on ethics.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  What did they do? Why did you have to do that to them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  “What did they do?”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Tell me, Miss Chen, what did they do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Tell me, where was it Reunion hid themselves? Where was it they snuck into our city?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You trust the slum dwellers, but do they trust you? Where did that trust come from?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Have any of them, aside from your informants or Lin Kojui’s ears, reported the Infected infiltrating their homes?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Things happened so fast! That doesn’t mean anything!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Did you receive even a single tip?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Yes or no?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Not one. Not a single person stepped up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  They don’t trust you. They would rather put their faith in foreign provocateurs than the Rat King or the Superintendent of the L.G.D.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Maybe Reunion was threatening them. Reunion’s Infected are known to be violent and dangerous.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Did they forget that Lungmen has never raised a hand against them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I don’t blame them for supporting each other.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  In fact, if the Infected didn’t support each other, if they hated each other instead, the slums would have long since destroyed themselves.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  But they could have opposed Reunion. They could have come together with the Rat King’s people to fight the infiltrators, they could have asked for your help——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  They don’t trust——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Exactly. They don’t trust you. After all you’ve done for them. They still don’t trust you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  We should have sent the L.G.D. into the slums long ago!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  It was the locals who didn’t want the L.G.D. in the slums. They were the ones working against my L.G.D. time and time again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Even as Lin Kojui and I worked so hard to root out the criminals and foreign agents from the slums, it was those same locals who scoffed at the sacrifices of our soldiers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Was it Lungmen that rejected them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Answer me, Miss Ch’en.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Look me in the eyes and answer me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  It’s not their fault.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Then whose, pray tell, is it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  How many times have I told you? You have the right to your own thoughts and opinions... provided you don’t let them affect your work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  The L.G.D. is here to protect Lungmen. The Special Inspection Unit is here to guide the L.G.D. to protect Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  The slums you’ve done so much for have become a vulnerability that could lead to Lungmen’s destruction.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Reunion exploited the Infected among them to distract us, letting our guard down to Chernobog.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  The measures we took to fight off Reunion left us open to this maneuver by the core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  And those Infected stood by and did nothing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  If Lungmen falls here, it is ultimately by their hand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  No...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Who should be held responsible for turning Lungmen into a flashpoint? Who is responsible for lives lost and blood spilled?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  So much destruction over a few neighborhoods... just because we didn’t act in time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  When you say “act,” do you mean——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Whose fault is it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Was it Lungmen that rejected them? No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  It was they who rejected Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  So you’ll dispose of them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Indifference and a lack of vision already destroyed them. I have no reason to care for these people anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Ch’en. We are all tainted with our innumerable mistakes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Everyone makes mistakes. All we can do is fix them, or cover them up for a while.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  There is always someone who can do what I can’t. But for now, I still have things to do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Everyone makes mistakes?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I know what you’re saying.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  The Infected are a mistake, as long as they exist in the city?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Pigheaded girl.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Superintendent Ch'en, I have told you everything. Now do what you must.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Alright then. *Inhales*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Wei Yenwu, what I must do, what the L.G.D. must do, is name who is at fault, and correct the mistake.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  It seems that, according to your definition, I am at fault.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  We could also say I am the mistake.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Because I am Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Ch'en?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Madam Ch’en...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  There is no need to hide it anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  For three years, you've been hiding my infection from the world. Now that the Infected have no place in this city, neither do I.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Nonsense!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  She and I are both Infected. I don’t belong here. I know what I must do, and I won’t be making any more mistakes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I’m the only one who can stop her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Don’t feel bad. I understand. We’re sworn brothers, aren’t we? Brothers... remember where we came from.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sworn brothers ruined.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I am Infected, and a traitor to Lungmen. I am the only one who can do this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I hate you. And I hate them. I should love you, but right now I hate every last one of you.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood relations ruined.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  We’ve come this far. All we can do is keep going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Why me? Why does it have to be me? Who could feel safe sitting here?”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close family ruined.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  If you leave this office today, Ch’en Hui-chieh... you will be an enemy of Lungmen. You will never again be allowed to set foot in this city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  And all that we’ve worked for together for the past ten years... will come to nothing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Everything I worked for came to nothing as soon as you did what you did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Lungmen is about to go up in flames. A battle is upon us. You have your ways, I have mine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  The only difference is, I’m not like you. I don’t think anyone is a “mistake.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I won’t let this city fall. But I won’t go in without a plan either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Power is a tool, at the end of the day. If you are going to use this tool to tinker with the world, you have to conform to its expectations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Um.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Don’t make a mockery of yourself, Inspector Ch'en.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ......?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Laugh at that, and you’re laughing at yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I raised you to change it. I hoped that you would change this world to want more than prosperity and growth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  So, has it changed? Can it be changed? Does everything I’ve worked for actually mean anything?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Even if it can’t now, it must be someday.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You’re going to make sure it can be changed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Receptionist"]  Wait! Stop! Who are you?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Receptionist"]  You can’t go in there... security?! Where are the guards?! There’s an intruder!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Lord Wei, we will act.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Get out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Let us act!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You shouldn’t have come.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Heh... haha, ahahahaha...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Wei Yenwu, that’s all it took to show your true colors? Your private army just shows up here in your office?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Madam Ch'en, Lungmen is threatened!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Sounds like you have a strong sense of duty.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  But I don’t believe a word you say. If you have something for him, go ahead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Lord Wei... it is within our means to infiltrate the city, kill the mastermind, and stop the collision! We shall sacrifice our lives for the city, and lift this burden from thy shoulders!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]   Get out! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Lord Wei!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  How about it, Wei Yenwu? Will you send them, or send me? Is that a tough choice?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Why is it you’re so decisive when it comes to killing people and so indecisive when it’s time to save them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  That’s how it is now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  That’s how it was then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I didn’t expect a chance at a proper goodbye.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I’ve thought about it many times, Wei Yenwu, but I never expected to give anyone a proper goodbye.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Miss Fumizuki, I’m sorry my mom treated you like that. Thank you for looking after me all these years. I’ve always thought of you as family.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  ...Ch'en?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Superintendent Ch'en!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Not anymore. This badge? You can have it back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Seize her!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You want to fight here first? To decide who’s the real traitor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Superintendent Ch'en, the enemy is at our gates!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I’m Infected. I’m your greatest enemy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Cease and desist! Or I will show no mercy!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Who have you ever shown mercy?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  ...Hng?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Don’t sound all high-and-mighty about things you can’t do!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Lord Wei, look out!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Chi Xiao - Rouse Qi!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Brother, if this sword is used to slay dragons, does it also work on Dracos?”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"It just might. Looks like I’ll have to be more careful around you, haha...”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Her Arts... are overflowing?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Doctor, get behind me! I’ll block the Arts!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  No... It’ll just get torn apart by that kind of power.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  She’s not aiming for us. Get out of her range right now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Ah, okay!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Her Arts are beginning to expand. Back up!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ——Release!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  The dragonslaying sword... unsheathed?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Tsk...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You can block it with just your wrist?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Most astute! I see your swordsmanship is sharper than ever, Superintendent!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...Tempered Originium. Chi Xiao, huh? To think that they’re still making weapons like that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Doctor, is that sword specifically forged to fight against energy-based Arts?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...At first, Madam Ch’en didn’t even let me look at that sword. Was she envisioning a situation where I would be an enemy...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Out of my way!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Lord Wei, the Superintendent has chosen her path. I may not be able to block a second blow. Shall I put my life on the line?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Through my death, I assure you that Inspector Ch’en will remain in Lungmen. Though I cannot guarantee that she’ll have her limbs intact, I can ensure that she lives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]   —Impermissible. You, fall back. Don’t engage her directly!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I shall immediately alert my brothers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Planning to call reinforcements? Chi Xiao—!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Cease!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Gah..!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Hui-chieh, are you going to use the cloud-splitting sword?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Don’t forget, who taught you your swordsmanship and your Arts?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I never once thought to strip you of your swordsmanship, but I will no longer play nice at this point.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Don’t force my hand, Ch'en Hui-chieh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Do it then, Master Wei. Chi Xiao answers to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  The day you gave me Chi Xiao, did you think I would slay you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I won’t use it to spill your blood, Wei Yenwu.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You think you’re protecting me, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  My mother died to depression. Talulah was taken away. I contracted Oripathy in the course of my work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You think everything you’ve done was for the sake of protecting me, don’t you? Is that because of your guilty conscience, or because of your confidence in your own strategies?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I don’t want to witness another tragedy ever again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Liar!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Wei Yenwu, there are those who this sword seeks to kill... and those who it seeks to protect.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  If she truly wishes to destroy Lungmen...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  No... No. You must not go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I never thought I would beat you and your Black Cloaks here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ...But there is more than one way out of here, Wei Yenwu.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  The window?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Ch'en Hui-chieh! Stop this foolishness! We’re hundreds of meters above the ground.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  This wouldn’t be the first time I’ve used the window route. Or the second.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Ch'en Hui-chieh, you must not go to her!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Ahhh... Ch’en...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You mustn’t repeat the same mistakes! You can’t go down the same path we did!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  If there’s anyone who should die for this city, that person should be—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  *Sigh.*
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Uncle...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  No... Wei Yenwu. Starting today, we are strangers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sound of glass smashing echoed across the room, and Ch’en falls face-up from the tall building.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lord of Lungmen let out a thunderous roar, and the man in the black poncho leapt toward the window like an arrow springing from a bowstring.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But Ch’en had already made up her mind.
 </t>
   </si>
   <si>
@@ -3852,13 +5015,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C297"/>
+  <dimension ref="A1:D297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3868,3261 +5031,4152 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D5" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" t="s">
+        <v>589</v>
+      </c>
+      <c r="D7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D8" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" t="s">
+        <v>591</v>
+      </c>
+      <c r="D9" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" t="s">
+        <v>592</v>
+      </c>
+      <c r="D10" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" t="s">
+        <v>593</v>
+      </c>
+      <c r="D11" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" t="s">
+        <v>594</v>
+      </c>
+      <c r="D12" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" t="s">
+        <v>595</v>
+      </c>
+      <c r="D13" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" t="s">
+        <v>596</v>
+      </c>
+      <c r="D14" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" t="s">
+        <v>597</v>
+      </c>
+      <c r="D15" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" t="s">
+        <v>598</v>
+      </c>
+      <c r="D16" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" t="s">
+        <v>599</v>
+      </c>
+      <c r="D17" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" t="s">
+        <v>600</v>
+      </c>
+      <c r="D18" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" t="s">
+        <v>601</v>
+      </c>
+      <c r="D19" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" t="s">
+        <v>602</v>
+      </c>
+      <c r="D20" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" t="s">
+        <v>603</v>
+      </c>
+      <c r="D21" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" t="s">
+        <v>604</v>
+      </c>
+      <c r="D22" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" t="s">
+        <v>605</v>
+      </c>
+      <c r="D23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24" t="s">
+        <v>606</v>
+      </c>
+      <c r="D24" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" t="s">
+        <v>607</v>
+      </c>
+      <c r="D25" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" t="s">
+        <v>608</v>
+      </c>
+      <c r="D26" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" t="s">
+        <v>609</v>
+      </c>
+      <c r="D27" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" t="s">
+        <v>610</v>
+      </c>
+      <c r="D28" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" t="s">
+        <v>611</v>
+      </c>
+      <c r="D29" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" t="s">
+        <v>612</v>
+      </c>
+      <c r="D30" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" t="s">
+        <v>613</v>
+      </c>
+      <c r="D31" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" t="s">
+        <v>614</v>
+      </c>
+      <c r="D32" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33" t="s">
+        <v>615</v>
+      </c>
+      <c r="D33" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" t="s">
+        <v>616</v>
+      </c>
+      <c r="D34" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35" t="s">
+        <v>617</v>
+      </c>
+      <c r="D35" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" t="s">
+        <v>618</v>
+      </c>
+      <c r="D36" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>329</v>
+      </c>
+      <c r="C37" t="s">
+        <v>619</v>
+      </c>
+      <c r="D37" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C38" t="s">
+        <v>620</v>
+      </c>
+      <c r="D38" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>331</v>
+      </c>
+      <c r="C39" t="s">
+        <v>621</v>
+      </c>
+      <c r="D39" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" t="s">
+        <v>622</v>
+      </c>
+      <c r="D40" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>333</v>
+      </c>
+      <c r="C41" t="s">
+        <v>623</v>
+      </c>
+      <c r="D41" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C42" t="s">
+        <v>624</v>
+      </c>
+      <c r="D42" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>335</v>
+      </c>
+      <c r="C43" t="s">
+        <v>625</v>
+      </c>
+      <c r="D43" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>336</v>
+      </c>
+      <c r="C44" t="s">
+        <v>626</v>
+      </c>
+      <c r="D44" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>337</v>
+      </c>
+      <c r="C45" t="s">
+        <v>627</v>
+      </c>
+      <c r="D45" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46" t="s">
+        <v>628</v>
+      </c>
+      <c r="D46" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C47" t="s">
+        <v>629</v>
+      </c>
+      <c r="D47" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>340</v>
+      </c>
+      <c r="C48" t="s">
+        <v>630</v>
+      </c>
+      <c r="D48" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" t="s">
+        <v>631</v>
+      </c>
+      <c r="D49" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>342</v>
+      </c>
+      <c r="C50" t="s">
+        <v>632</v>
+      </c>
+      <c r="D50" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>343</v>
+      </c>
+      <c r="C51" t="s">
+        <v>633</v>
+      </c>
+      <c r="D51" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>344</v>
+      </c>
+      <c r="C52" t="s">
+        <v>634</v>
+      </c>
+      <c r="D52" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" t="s">
+        <v>635</v>
+      </c>
+      <c r="D53" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>346</v>
+      </c>
+      <c r="C54" t="s">
+        <v>636</v>
+      </c>
+      <c r="D54" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>347</v>
+      </c>
+      <c r="C55" t="s">
+        <v>637</v>
+      </c>
+      <c r="D55" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>348</v>
+      </c>
+      <c r="C56" t="s">
+        <v>638</v>
+      </c>
+      <c r="D56" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>349</v>
+      </c>
+      <c r="C57" t="s">
+        <v>639</v>
+      </c>
+      <c r="D57" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>350</v>
+      </c>
+      <c r="C58" t="s">
+        <v>640</v>
+      </c>
+      <c r="D58" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" t="s">
+        <v>641</v>
+      </c>
+      <c r="D59" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>352</v>
+      </c>
+      <c r="C60" t="s">
+        <v>642</v>
+      </c>
+      <c r="D60" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>353</v>
+      </c>
+      <c r="C61" t="s">
+        <v>643</v>
+      </c>
+      <c r="D61" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>354</v>
+      </c>
+      <c r="C62" t="s">
+        <v>644</v>
+      </c>
+      <c r="D62" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C63" t="s">
+        <v>645</v>
+      </c>
+      <c r="D63" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>356</v>
+      </c>
+      <c r="C64" t="s">
+        <v>646</v>
+      </c>
+      <c r="D64" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>357</v>
+      </c>
+      <c r="C65" t="s">
+        <v>647</v>
+      </c>
+      <c r="D65" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>358</v>
+      </c>
+      <c r="C66" t="s">
+        <v>648</v>
+      </c>
+      <c r="D66" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>359</v>
+      </c>
+      <c r="C67" t="s">
+        <v>649</v>
+      </c>
+      <c r="D67" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>360</v>
+      </c>
+      <c r="C68" t="s">
+        <v>650</v>
+      </c>
+      <c r="D68" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>361</v>
+      </c>
+      <c r="C69" t="s">
+        <v>651</v>
+      </c>
+      <c r="D69" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>362</v>
+      </c>
+      <c r="C70" t="s">
+        <v>652</v>
+      </c>
+      <c r="D70" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>363</v>
+      </c>
+      <c r="C71" t="s">
+        <v>653</v>
+      </c>
+      <c r="D71" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>364</v>
+      </c>
+      <c r="C72" t="s">
+        <v>654</v>
+      </c>
+      <c r="D72" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>365</v>
+      </c>
+      <c r="C73" t="s">
+        <v>655</v>
+      </c>
+      <c r="D73" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>366</v>
+      </c>
+      <c r="C74" t="s">
+        <v>656</v>
+      </c>
+      <c r="D74" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>367</v>
+      </c>
+      <c r="C75" t="s">
+        <v>657</v>
+      </c>
+      <c r="D75" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>368</v>
+      </c>
+      <c r="C76" t="s">
+        <v>658</v>
+      </c>
+      <c r="D76" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>369</v>
+      </c>
+      <c r="C77" t="s">
+        <v>659</v>
+      </c>
+      <c r="D77" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>370</v>
+      </c>
+      <c r="C78" t="s">
+        <v>660</v>
+      </c>
+      <c r="D78" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>371</v>
+      </c>
+      <c r="C79" t="s">
+        <v>661</v>
+      </c>
+      <c r="D79" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C80" t="s">
+        <v>662</v>
+      </c>
+      <c r="D80" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>373</v>
+      </c>
+      <c r="C81" t="s">
+        <v>663</v>
+      </c>
+      <c r="D81" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>374</v>
+      </c>
+      <c r="C82" t="s">
+        <v>664</v>
+      </c>
+      <c r="D82" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>375</v>
+      </c>
+      <c r="C83" t="s">
+        <v>665</v>
+      </c>
+      <c r="D83" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>376</v>
+      </c>
+      <c r="C84" t="s">
+        <v>666</v>
+      </c>
+      <c r="D84" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>377</v>
+      </c>
+      <c r="C85" t="s">
+        <v>667</v>
+      </c>
+      <c r="D85" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>378</v>
+      </c>
+      <c r="C86" t="s">
+        <v>668</v>
+      </c>
+      <c r="D86" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>379</v>
+      </c>
+      <c r="C87" t="s">
+        <v>669</v>
+      </c>
+      <c r="D87" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>380</v>
+      </c>
+      <c r="C88" t="s">
+        <v>670</v>
+      </c>
+      <c r="D88" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>381</v>
+      </c>
+      <c r="C89" t="s">
+        <v>671</v>
+      </c>
+      <c r="D89" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>382</v>
+      </c>
+      <c r="C90" t="s">
+        <v>672</v>
+      </c>
+      <c r="D90" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>383</v>
+      </c>
+      <c r="C91" t="s">
+        <v>673</v>
+      </c>
+      <c r="D91" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>384</v>
+      </c>
+      <c r="C92" t="s">
+        <v>674</v>
+      </c>
+      <c r="D92" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>385</v>
+      </c>
+      <c r="C93" t="s">
+        <v>675</v>
+      </c>
+      <c r="D93" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>386</v>
+      </c>
+      <c r="C94" t="s">
+        <v>676</v>
+      </c>
+      <c r="D94" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>387</v>
+      </c>
+      <c r="C95" t="s">
+        <v>677</v>
+      </c>
+      <c r="D95" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>388</v>
+      </c>
+      <c r="C96" t="s">
+        <v>678</v>
+      </c>
+      <c r="D96" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>389</v>
+      </c>
+      <c r="C97" t="s">
+        <v>679</v>
+      </c>
+      <c r="D97" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>390</v>
+      </c>
+      <c r="C98" t="s">
+        <v>680</v>
+      </c>
+      <c r="D98" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>391</v>
+      </c>
+      <c r="C99" t="s">
+        <v>681</v>
+      </c>
+      <c r="D99" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>392</v>
+      </c>
+      <c r="C100" t="s">
+        <v>682</v>
+      </c>
+      <c r="D100" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>393</v>
+      </c>
+      <c r="C101" t="s">
+        <v>683</v>
+      </c>
+      <c r="D101" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>394</v>
+      </c>
+      <c r="C102" t="s">
+        <v>684</v>
+      </c>
+      <c r="D102" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>365</v>
+      </c>
+      <c r="C103" t="s">
+        <v>685</v>
+      </c>
+      <c r="D103" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>395</v>
+      </c>
+      <c r="C104" t="s">
+        <v>686</v>
+      </c>
+      <c r="D104" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>396</v>
+      </c>
+      <c r="C105" t="s">
+        <v>687</v>
+      </c>
+      <c r="D105" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>397</v>
+      </c>
+      <c r="C106" t="s">
+        <v>688</v>
+      </c>
+      <c r="D106" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>398</v>
+      </c>
+      <c r="C107" t="s">
+        <v>689</v>
+      </c>
+      <c r="D107" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>399</v>
+      </c>
+      <c r="C108" t="s">
+        <v>690</v>
+      </c>
+      <c r="D108" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>400</v>
+      </c>
+      <c r="C109" t="s">
+        <v>691</v>
+      </c>
+      <c r="D109" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>401</v>
+      </c>
+      <c r="C110" t="s">
+        <v>692</v>
+      </c>
+      <c r="D110" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>402</v>
+      </c>
+      <c r="C111" t="s">
+        <v>693</v>
+      </c>
+      <c r="D111" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>403</v>
+      </c>
+      <c r="C112" t="s">
+        <v>694</v>
+      </c>
+      <c r="D112" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>404</v>
+      </c>
+      <c r="C113" t="s">
+        <v>695</v>
+      </c>
+      <c r="D113" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>405</v>
+      </c>
+      <c r="C114" t="s">
+        <v>696</v>
+      </c>
+      <c r="D114" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>406</v>
+      </c>
+      <c r="C115" t="s">
+        <v>697</v>
+      </c>
+      <c r="D115" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>407</v>
+      </c>
+      <c r="C116" t="s">
+        <v>698</v>
+      </c>
+      <c r="D116" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>408</v>
+      </c>
+      <c r="C117" t="s">
+        <v>699</v>
+      </c>
+      <c r="D117" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>409</v>
+      </c>
+      <c r="C118" t="s">
+        <v>700</v>
+      </c>
+      <c r="D118" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>410</v>
+      </c>
+      <c r="C119" t="s">
+        <v>701</v>
+      </c>
+      <c r="D119" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>411</v>
+      </c>
+      <c r="C120" t="s">
+        <v>702</v>
+      </c>
+      <c r="D120" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>412</v>
+      </c>
+      <c r="C121" t="s">
+        <v>703</v>
+      </c>
+      <c r="D121" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>413</v>
+      </c>
+      <c r="C122" t="s">
+        <v>704</v>
+      </c>
+      <c r="D122" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>414</v>
+      </c>
+      <c r="C123" t="s">
+        <v>705</v>
+      </c>
+      <c r="D123" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124" t="s">
+        <v>308</v>
+      </c>
+      <c r="C124" t="s">
+        <v>598</v>
+      </c>
+      <c r="D124" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>415</v>
+      </c>
+      <c r="C125" t="s">
+        <v>706</v>
+      </c>
+      <c r="D125" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>416</v>
+      </c>
+      <c r="C126" t="s">
+        <v>707</v>
+      </c>
+      <c r="D126" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>417</v>
+      </c>
+      <c r="C127" t="s">
+        <v>708</v>
+      </c>
+      <c r="D127" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>418</v>
+      </c>
+      <c r="C128" t="s">
+        <v>709</v>
+      </c>
+      <c r="D128" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>419</v>
+      </c>
+      <c r="C129" t="s">
+        <v>710</v>
+      </c>
+      <c r="D129" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>420</v>
+      </c>
+      <c r="C130" t="s">
+        <v>711</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>421</v>
+      </c>
+      <c r="C131" t="s">
+        <v>712</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>422</v>
+      </c>
+      <c r="C132" t="s">
+        <v>713</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>423</v>
+      </c>
+      <c r="C133" t="s">
+        <v>714</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>424</v>
+      </c>
+      <c r="C134" t="s">
+        <v>715</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>425</v>
+      </c>
+      <c r="C135" t="s">
+        <v>716</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>426</v>
+      </c>
+      <c r="C136" t="s">
+        <v>717</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>427</v>
+      </c>
+      <c r="C137" t="s">
+        <v>718</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>428</v>
+      </c>
+      <c r="C138" t="s">
+        <v>719</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>429</v>
+      </c>
+      <c r="C139" t="s">
+        <v>720</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>430</v>
+      </c>
+      <c r="C140" t="s">
+        <v>721</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>308</v>
+      </c>
+      <c r="C141" t="s">
+        <v>598</v>
+      </c>
+      <c r="D141" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>431</v>
+      </c>
+      <c r="C142" t="s">
+        <v>722</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>432</v>
+      </c>
+      <c r="C143" t="s">
+        <v>723</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>433</v>
+      </c>
+      <c r="C144" t="s">
+        <v>724</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>434</v>
+      </c>
+      <c r="C145" t="s">
+        <v>725</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>435</v>
+      </c>
+      <c r="C146" t="s">
+        <v>726</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>436</v>
+      </c>
+      <c r="C147" t="s">
+        <v>727</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>437</v>
+      </c>
+      <c r="C148" t="s">
+        <v>728</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" t="s">
+        <v>729</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>439</v>
+      </c>
+      <c r="C150" t="s">
+        <v>730</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>440</v>
+      </c>
+      <c r="C151" t="s">
+        <v>731</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>441</v>
+      </c>
+      <c r="C152" t="s">
+        <v>732</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>442</v>
+      </c>
+      <c r="C153" t="s">
+        <v>733</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>443</v>
+      </c>
+      <c r="C154" t="s">
+        <v>734</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>444</v>
+      </c>
+      <c r="C155" t="s">
+        <v>735</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>445</v>
+      </c>
+      <c r="C156" t="s">
+        <v>736</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" t="s">
+        <v>308</v>
+      </c>
+      <c r="C157" t="s">
+        <v>598</v>
+      </c>
+      <c r="D157" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>446</v>
+      </c>
+      <c r="C158" t="s">
+        <v>737</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>447</v>
+      </c>
+      <c r="C159" t="s">
+        <v>738</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>448</v>
+      </c>
+      <c r="C160" t="s">
+        <v>739</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>449</v>
+      </c>
+      <c r="C161" t="s">
+        <v>740</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>450</v>
+      </c>
+      <c r="C162" t="s">
+        <v>741</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>451</v>
+      </c>
+      <c r="C163" t="s">
+        <v>742</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>452</v>
+      </c>
+      <c r="C164" t="s">
+        <v>743</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>453</v>
+      </c>
+      <c r="C165" t="s">
+        <v>744</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>454</v>
+      </c>
+      <c r="C166" t="s">
+        <v>745</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>455</v>
+      </c>
+      <c r="C167" t="s">
+        <v>746</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>456</v>
+      </c>
+      <c r="C168" t="s">
+        <v>747</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>457</v>
+      </c>
+      <c r="C169" t="s">
+        <v>748</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>458</v>
+      </c>
+      <c r="C170" t="s">
+        <v>749</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>459</v>
+      </c>
+      <c r="C171" t="s">
+        <v>750</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>460</v>
+      </c>
+      <c r="C172" t="s">
+        <v>751</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>461</v>
+      </c>
+      <c r="C173" t="s">
+        <v>752</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>462</v>
+      </c>
+      <c r="C174" t="s">
+        <v>753</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>463</v>
+      </c>
+      <c r="C175" t="s">
+        <v>754</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>464</v>
+      </c>
+      <c r="C176" t="s">
+        <v>755</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>465</v>
+      </c>
+      <c r="C177" t="s">
+        <v>756</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>466</v>
+      </c>
+      <c r="C178" t="s">
+        <v>757</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>467</v>
+      </c>
+      <c r="C179" t="s">
+        <v>758</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>468</v>
+      </c>
+      <c r="C180" t="s">
+        <v>759</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>469</v>
+      </c>
+      <c r="C181" t="s">
+        <v>760</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>470</v>
+      </c>
+      <c r="C182" t="s">
+        <v>761</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>471</v>
+      </c>
+      <c r="C183" t="s">
+        <v>762</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>472</v>
+      </c>
+      <c r="C184" t="s">
+        <v>763</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>473</v>
+      </c>
+      <c r="C185" t="s">
+        <v>764</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>474</v>
+      </c>
+      <c r="C186" t="s">
+        <v>765</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>475</v>
+      </c>
+      <c r="C187" t="s">
+        <v>766</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>476</v>
+      </c>
+      <c r="C188" t="s">
+        <v>767</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>477</v>
+      </c>
+      <c r="C189" t="s">
+        <v>768</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>478</v>
+      </c>
+      <c r="C190" t="s">
+        <v>769</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>479</v>
+      </c>
+      <c r="C191" t="s">
+        <v>770</v>
+      </c>
+      <c r="D191" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>480</v>
+      </c>
+      <c r="C192" t="s">
+        <v>771</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>481</v>
+      </c>
+      <c r="C193" t="s">
+        <v>772</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>482</v>
+      </c>
+      <c r="C194" t="s">
+        <v>773</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>483</v>
+      </c>
+      <c r="C195" t="s">
+        <v>774</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>484</v>
+      </c>
+      <c r="C196" t="s">
+        <v>775</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>485</v>
+      </c>
+      <c r="C197" t="s">
+        <v>776</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>486</v>
+      </c>
+      <c r="C198" t="s">
+        <v>777</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>487</v>
+      </c>
+      <c r="C199" t="s">
+        <v>778</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>488</v>
+      </c>
+      <c r="C200" t="s">
+        <v>779</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>489</v>
+      </c>
+      <c r="C201" t="s">
+        <v>780</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>490</v>
+      </c>
+      <c r="C202" t="s">
+        <v>781</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>491</v>
+      </c>
+      <c r="C203" t="s">
+        <v>782</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>492</v>
+      </c>
+      <c r="C204" t="s">
+        <v>783</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>493</v>
+      </c>
+      <c r="C205" t="s">
+        <v>784</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>494</v>
+      </c>
+      <c r="C206" t="s">
+        <v>785</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>495</v>
+      </c>
+      <c r="C207" t="s">
+        <v>786</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>496</v>
+      </c>
+      <c r="C208" t="s">
+        <v>787</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>497</v>
+      </c>
+      <c r="C209" t="s">
+        <v>788</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>498</v>
+      </c>
+      <c r="C210" t="s">
+        <v>789</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>499</v>
+      </c>
+      <c r="C211" t="s">
+        <v>790</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>500</v>
+      </c>
+      <c r="C212" t="s">
+        <v>791</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>501</v>
+      </c>
+      <c r="C213" t="s">
+        <v>792</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>502</v>
+      </c>
+      <c r="C214" t="s">
+        <v>793</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>503</v>
+      </c>
+      <c r="C215" t="s">
+        <v>794</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>504</v>
+      </c>
+      <c r="C216" t="s">
+        <v>795</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>505</v>
+      </c>
+      <c r="C217" t="s">
+        <v>796</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>506</v>
+      </c>
+      <c r="C218" t="s">
+        <v>797</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>507</v>
+      </c>
+      <c r="C219" t="s">
+        <v>798</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>508</v>
+      </c>
+      <c r="C220" t="s">
+        <v>799</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>509</v>
+      </c>
+      <c r="C221" t="s">
+        <v>800</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>510</v>
+      </c>
+      <c r="C222" t="s">
+        <v>801</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>511</v>
+      </c>
+      <c r="C223" t="s">
+        <v>802</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>512</v>
+      </c>
+      <c r="C224" t="s">
+        <v>803</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>513</v>
+      </c>
+      <c r="C225" t="s">
+        <v>804</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>514</v>
+      </c>
+      <c r="C226" t="s">
+        <v>805</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>515</v>
+      </c>
+      <c r="C227" t="s">
+        <v>806</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>516</v>
+      </c>
+      <c r="C228" t="s">
+        <v>807</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>517</v>
+      </c>
+      <c r="C229" t="s">
+        <v>808</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>518</v>
+      </c>
+      <c r="C230" t="s">
+        <v>809</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>519</v>
+      </c>
+      <c r="C231" t="s">
+        <v>810</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>520</v>
+      </c>
+      <c r="C232" t="s">
+        <v>811</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>521</v>
+      </c>
+      <c r="C233" t="s">
+        <v>812</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>522</v>
+      </c>
+      <c r="C234" t="s">
+        <v>813</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>523</v>
+      </c>
+      <c r="C235" t="s">
+        <v>814</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>524</v>
+      </c>
+      <c r="C236" t="s">
+        <v>815</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>525</v>
+      </c>
+      <c r="C237" t="s">
+        <v>816</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>526</v>
+      </c>
+      <c r="C238" t="s">
+        <v>817</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>527</v>
+      </c>
+      <c r="C239" t="s">
+        <v>818</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>528</v>
+      </c>
+      <c r="C240" t="s">
+        <v>819</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>529</v>
+      </c>
+      <c r="C241" t="s">
+        <v>820</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>530</v>
+      </c>
+      <c r="C242" t="s">
+        <v>821</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>531</v>
+      </c>
+      <c r="C243" t="s">
+        <v>822</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>532</v>
+      </c>
+      <c r="C244" t="s">
+        <v>823</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>533</v>
+      </c>
+      <c r="C245" t="s">
+        <v>824</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>534</v>
+      </c>
+      <c r="C246" t="s">
+        <v>825</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>535</v>
+      </c>
+      <c r="C247" t="s">
+        <v>826</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>536</v>
+      </c>
+      <c r="C248" t="s">
+        <v>827</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>537</v>
+      </c>
+      <c r="C249" t="s">
+        <v>828</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>538</v>
+      </c>
+      <c r="C250" t="s">
+        <v>829</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>539</v>
+      </c>
+      <c r="C251" t="s">
+        <v>830</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>540</v>
+      </c>
+      <c r="C252" t="s">
+        <v>831</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>541</v>
+      </c>
+      <c r="C253" t="s">
+        <v>832</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>542</v>
+      </c>
+      <c r="C254" t="s">
+        <v>833</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>543</v>
+      </c>
+      <c r="C255" t="s">
+        <v>834</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>544</v>
+      </c>
+      <c r="C256" t="s">
+        <v>835</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>545</v>
+      </c>
+      <c r="C257" t="s">
+        <v>836</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>546</v>
+      </c>
+      <c r="C258" t="s">
+        <v>837</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>547</v>
+      </c>
+      <c r="C259" t="s">
+        <v>838</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>548</v>
+      </c>
+      <c r="C260" t="s">
+        <v>839</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>549</v>
+      </c>
+      <c r="C261" t="s">
+        <v>840</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>550</v>
+      </c>
+      <c r="C262" t="s">
+        <v>841</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>551</v>
+      </c>
+      <c r="C263" t="s">
+        <v>842</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>552</v>
+      </c>
+      <c r="C264" t="s">
+        <v>843</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>553</v>
+      </c>
+      <c r="C265" t="s">
+        <v>844</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>18</v>
+      </c>
+      <c r="B266" t="s">
+        <v>308</v>
+      </c>
+      <c r="C266" t="s">
+        <v>598</v>
+      </c>
+      <c r="D266" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>554</v>
+      </c>
+      <c r="C267" t="s">
+        <v>845</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>555</v>
+      </c>
+      <c r="C268" t="s">
+        <v>846</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>556</v>
+      </c>
+      <c r="C269" t="s">
+        <v>847</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>557</v>
+      </c>
+      <c r="C270" t="s">
+        <v>848</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>558</v>
+      </c>
+      <c r="C271" t="s">
+        <v>849</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>559</v>
+      </c>
+      <c r="C272" t="s">
+        <v>850</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>105</v>
+      </c>
+      <c r="B273" t="s">
+        <v>365</v>
+      </c>
+      <c r="C273" t="s">
+        <v>685</v>
+      </c>
+      <c r="D273" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>271</v>
+      </c>
+      <c r="B274" t="s">
+        <v>560</v>
+      </c>
+      <c r="C274" t="s">
+        <v>851</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>272</v>
+      </c>
+      <c r="B275" t="s">
+        <v>561</v>
+      </c>
+      <c r="C275" t="s">
+        <v>852</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>273</v>
+      </c>
+      <c r="B276" t="s">
+        <v>562</v>
+      </c>
+      <c r="C276" t="s">
+        <v>853</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>274</v>
+      </c>
+      <c r="B277" t="s">
+        <v>563</v>
+      </c>
+      <c r="C277" t="s">
+        <v>854</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>275</v>
+      </c>
+      <c r="B278" t="s">
+        <v>564</v>
+      </c>
+      <c r="C278" t="s">
+        <v>855</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>276</v>
+      </c>
+      <c r="B279" t="s">
+        <v>565</v>
+      </c>
+      <c r="C279" t="s">
+        <v>856</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>277</v>
+      </c>
+      <c r="B280" t="s">
+        <v>566</v>
+      </c>
+      <c r="C280" t="s">
+        <v>857</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>278</v>
+      </c>
+      <c r="B281" t="s">
+        <v>567</v>
+      </c>
+      <c r="C281" t="s">
+        <v>858</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>279</v>
+      </c>
+      <c r="B282" t="s">
+        <v>568</v>
+      </c>
+      <c r="C282" t="s">
+        <v>859</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>280</v>
+      </c>
+      <c r="B283" t="s">
+        <v>569</v>
+      </c>
+      <c r="C283" t="s">
+        <v>860</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>281</v>
+      </c>
+      <c r="B284" t="s">
+        <v>570</v>
+      </c>
+      <c r="C284" t="s">
+        <v>861</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>282</v>
+      </c>
+      <c r="B285" t="s">
+        <v>571</v>
+      </c>
+      <c r="C285" t="s">
+        <v>862</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>283</v>
+      </c>
+      <c r="B286" t="s">
+        <v>572</v>
+      </c>
+      <c r="C286" t="s">
+        <v>863</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>75</v>
+      </c>
+      <c r="B287" t="s">
+        <v>573</v>
+      </c>
+      <c r="C287" t="s">
+        <v>655</v>
+      </c>
+      <c r="D287" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>284</v>
+      </c>
+      <c r="B288" t="s">
+        <v>574</v>
+      </c>
+      <c r="C288" t="s">
+        <v>864</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>285</v>
+      </c>
+      <c r="B289" t="s">
+        <v>575</v>
+      </c>
+      <c r="C289" t="s">
+        <v>865</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>286</v>
+      </c>
+      <c r="B290" t="s">
+        <v>576</v>
+      </c>
+      <c r="C290" t="s">
+        <v>866</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>287</v>
+      </c>
+      <c r="B291" t="s">
+        <v>577</v>
+      </c>
+      <c r="C291" t="s">
+        <v>867</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>288</v>
+      </c>
+      <c r="B292" t="s">
+        <v>578</v>
+      </c>
+      <c r="C292" t="s">
+        <v>868</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>289</v>
+      </c>
+      <c r="B293" t="s">
+        <v>579</v>
+      </c>
+      <c r="C293" t="s">
+        <v>869</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>290</v>
+      </c>
+      <c r="B294" t="s">
+        <v>580</v>
+      </c>
+      <c r="C294" t="s">
+        <v>870</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>291</v>
+      </c>
+      <c r="B295" t="s">
+        <v>581</v>
+      </c>
+      <c r="C295" t="s">
+        <v>871</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>292</v>
+      </c>
+      <c r="B296" t="s">
+        <v>582</v>
+      </c>
+      <c r="C296" t="s">
+        <v>872</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
         <v>293</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B297" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>300</v>
-      </c>
-      <c r="C9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C10" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C11" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>303</v>
-      </c>
-      <c r="C12" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>304</v>
-      </c>
-      <c r="C13" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>305</v>
-      </c>
-      <c r="C14" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C15" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C16" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C17" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C18" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>310</v>
-      </c>
-      <c r="C19" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>312</v>
-      </c>
-      <c r="C21" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>313</v>
-      </c>
-      <c r="C22" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>314</v>
-      </c>
-      <c r="C23" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>316</v>
-      </c>
-      <c r="C25" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>317</v>
-      </c>
-      <c r="C26" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>318</v>
-      </c>
-      <c r="C27" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>319</v>
-      </c>
-      <c r="C28" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>320</v>
-      </c>
-      <c r="C29" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>321</v>
-      </c>
-      <c r="C30" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>322</v>
-      </c>
-      <c r="C31" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>323</v>
-      </c>
-      <c r="C32" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>324</v>
-      </c>
-      <c r="C33" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C34" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>326</v>
-      </c>
-      <c r="C35" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>327</v>
-      </c>
-      <c r="C36" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>328</v>
-      </c>
-      <c r="C37" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>329</v>
-      </c>
-      <c r="C38" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>330</v>
-      </c>
-      <c r="C39" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>331</v>
-      </c>
-      <c r="C40" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>332</v>
-      </c>
-      <c r="C41" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>333</v>
-      </c>
-      <c r="C42" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>334</v>
-      </c>
-      <c r="C43" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>335</v>
-      </c>
-      <c r="C44" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>336</v>
-      </c>
-      <c r="C45" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>337</v>
-      </c>
-      <c r="C46" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>338</v>
-      </c>
-      <c r="C47" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>339</v>
-      </c>
-      <c r="C48" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>340</v>
-      </c>
-      <c r="C49" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>341</v>
-      </c>
-      <c r="C50" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>342</v>
-      </c>
-      <c r="C51" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>343</v>
-      </c>
-      <c r="C52" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>344</v>
-      </c>
-      <c r="C53" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>345</v>
-      </c>
-      <c r="C54" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>346</v>
-      </c>
-      <c r="C55" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>347</v>
-      </c>
-      <c r="C56" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>348</v>
-      </c>
-      <c r="C57" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>349</v>
-      </c>
-      <c r="C58" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>350</v>
-      </c>
-      <c r="C59" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>351</v>
-      </c>
-      <c r="C60" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>352</v>
-      </c>
-      <c r="C61" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>353</v>
-      </c>
-      <c r="C62" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>354</v>
-      </c>
-      <c r="C63" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>355</v>
-      </c>
-      <c r="C64" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>356</v>
-      </c>
-      <c r="C65" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>357</v>
-      </c>
-      <c r="C66" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>358</v>
-      </c>
-      <c r="C67" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>359</v>
-      </c>
-      <c r="C68" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>360</v>
-      </c>
-      <c r="C69" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>361</v>
-      </c>
-      <c r="C70" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>362</v>
-      </c>
-      <c r="C71" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>363</v>
-      </c>
-      <c r="C72" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>364</v>
-      </c>
-      <c r="C73" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>365</v>
-      </c>
-      <c r="C74" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>366</v>
-      </c>
-      <c r="C75" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>367</v>
-      </c>
-      <c r="C76" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>368</v>
-      </c>
-      <c r="C77" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" t="s">
-        <v>369</v>
-      </c>
-      <c r="C78" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" t="s">
-        <v>370</v>
-      </c>
-      <c r="C79" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>371</v>
-      </c>
-      <c r="C80" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" t="s">
-        <v>372</v>
-      </c>
-      <c r="C81" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" t="s">
-        <v>373</v>
-      </c>
-      <c r="C82" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" t="s">
-        <v>374</v>
-      </c>
-      <c r="C83" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" t="s">
-        <v>375</v>
-      </c>
-      <c r="C84" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" t="s">
-        <v>376</v>
-      </c>
-      <c r="C85" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" t="s">
-        <v>377</v>
-      </c>
-      <c r="C86" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" t="s">
-        <v>378</v>
-      </c>
-      <c r="C87" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" t="s">
-        <v>379</v>
-      </c>
-      <c r="C88" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" t="s">
-        <v>380</v>
-      </c>
-      <c r="C89" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" t="s">
-        <v>381</v>
-      </c>
-      <c r="C90" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" t="s">
-        <v>382</v>
-      </c>
-      <c r="C91" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" t="s">
-        <v>383</v>
-      </c>
-      <c r="C92" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" t="s">
-        <v>384</v>
-      </c>
-      <c r="C93" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" t="s">
-        <v>385</v>
-      </c>
-      <c r="C94" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" t="s">
-        <v>386</v>
-      </c>
-      <c r="C95" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" t="s">
-        <v>387</v>
-      </c>
-      <c r="C96" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" t="s">
-        <v>388</v>
-      </c>
-      <c r="C97" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" t="s">
-        <v>389</v>
-      </c>
-      <c r="C98" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" t="s">
-        <v>390</v>
-      </c>
-      <c r="C99" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" t="s">
-        <v>391</v>
-      </c>
-      <c r="C100" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" t="s">
-        <v>392</v>
-      </c>
-      <c r="C101" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" t="s">
-        <v>393</v>
-      </c>
-      <c r="C102" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" t="s">
-        <v>364</v>
-      </c>
-      <c r="C103" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" t="s">
-        <v>394</v>
-      </c>
-      <c r="C104" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" t="s">
-        <v>395</v>
-      </c>
-      <c r="C105" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" t="s">
-        <v>396</v>
-      </c>
-      <c r="C106" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" t="s">
-        <v>397</v>
-      </c>
-      <c r="C107" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" t="s">
-        <v>398</v>
-      </c>
-      <c r="C108" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" t="s">
-        <v>399</v>
-      </c>
-      <c r="C109" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110" t="s">
-        <v>400</v>
-      </c>
-      <c r="C110" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" t="s">
-        <v>401</v>
-      </c>
-      <c r="C111" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" t="s">
-        <v>402</v>
-      </c>
-      <c r="C112" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" t="s">
-        <v>403</v>
-      </c>
-      <c r="C113" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" t="s">
-        <v>404</v>
-      </c>
-      <c r="C114" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" t="s">
-        <v>405</v>
-      </c>
-      <c r="C115" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>117</v>
-      </c>
-      <c r="B116" t="s">
-        <v>406</v>
-      </c>
-      <c r="C116" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" t="s">
-        <v>407</v>
-      </c>
-      <c r="C117" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" t="s">
-        <v>408</v>
-      </c>
-      <c r="C118" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" t="s">
-        <v>409</v>
-      </c>
-      <c r="C119" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>121</v>
-      </c>
-      <c r="B120" t="s">
-        <v>410</v>
-      </c>
-      <c r="C120" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121" t="s">
-        <v>411</v>
-      </c>
-      <c r="C121" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" t="s">
-        <v>412</v>
-      </c>
-      <c r="C122" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123" t="s">
-        <v>413</v>
-      </c>
-      <c r="C123" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>17</v>
-      </c>
-      <c r="B124" t="s">
-        <v>307</v>
-      </c>
-      <c r="C124" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" t="s">
-        <v>414</v>
-      </c>
-      <c r="C125" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
-        <v>415</v>
-      </c>
-      <c r="C126" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" t="s">
-        <v>416</v>
-      </c>
-      <c r="C127" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128" t="s">
-        <v>417</v>
-      </c>
-      <c r="C128" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
-        <v>418</v>
-      </c>
-      <c r="C129" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
-        <v>419</v>
-      </c>
-      <c r="C130" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
-        <v>420</v>
-      </c>
-      <c r="C131" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" t="s">
-        <v>421</v>
-      </c>
-      <c r="C132" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" t="s">
-        <v>422</v>
-      </c>
-      <c r="C133" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134" t="s">
-        <v>423</v>
-      </c>
-      <c r="C134" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135" t="s">
-        <v>424</v>
-      </c>
-      <c r="C135" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>425</v>
-      </c>
-      <c r="C136" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137" t="s">
-        <v>426</v>
-      </c>
-      <c r="C137" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
-        <v>427</v>
-      </c>
-      <c r="C138" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139" t="s">
-        <v>428</v>
-      </c>
-      <c r="C139" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>140</v>
-      </c>
-      <c r="B140" t="s">
-        <v>429</v>
-      </c>
-      <c r="C140" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>17</v>
-      </c>
-      <c r="B141" t="s">
-        <v>307</v>
-      </c>
-      <c r="C141" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>430</v>
-      </c>
-      <c r="C142" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>431</v>
-      </c>
-      <c r="C143" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>432</v>
-      </c>
-      <c r="C144" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>433</v>
-      </c>
-      <c r="C145" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>434</v>
-      </c>
-      <c r="C146" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>435</v>
-      </c>
-      <c r="C147" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>436</v>
-      </c>
-      <c r="C148" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>437</v>
-      </c>
-      <c r="C149" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>438</v>
-      </c>
-      <c r="C150" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>439</v>
-      </c>
-      <c r="C151" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>440</v>
-      </c>
-      <c r="C152" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>441</v>
-      </c>
-      <c r="C153" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>442</v>
-      </c>
-      <c r="C154" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>443</v>
-      </c>
-      <c r="C155" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>444</v>
-      </c>
-      <c r="C156" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>17</v>
-      </c>
-      <c r="B157" t="s">
-        <v>307</v>
-      </c>
-      <c r="C157" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>445</v>
-      </c>
-      <c r="C158" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>446</v>
-      </c>
-      <c r="C159" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>447</v>
-      </c>
-      <c r="C160" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>448</v>
-      </c>
-      <c r="C161" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>449</v>
-      </c>
-      <c r="C162" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>450</v>
-      </c>
-      <c r="C163" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
-        <v>451</v>
-      </c>
-      <c r="C164" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>163</v>
-      </c>
-      <c r="B165" t="s">
-        <v>452</v>
-      </c>
-      <c r="C165" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>164</v>
-      </c>
-      <c r="B166" t="s">
-        <v>453</v>
-      </c>
-      <c r="C166" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>165</v>
-      </c>
-      <c r="B167" t="s">
-        <v>454</v>
-      </c>
-      <c r="C167" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>166</v>
-      </c>
-      <c r="B168" t="s">
-        <v>455</v>
-      </c>
-      <c r="C168" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
-        <v>456</v>
-      </c>
-      <c r="C169" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
-        <v>457</v>
-      </c>
-      <c r="C170" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>458</v>
-      </c>
-      <c r="C171" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>170</v>
-      </c>
-      <c r="B172" t="s">
-        <v>459</v>
-      </c>
-      <c r="C172" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>460</v>
-      </c>
-      <c r="C173" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>461</v>
-      </c>
-      <c r="C174" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>462</v>
-      </c>
-      <c r="C175" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>174</v>
-      </c>
-      <c r="B176" t="s">
-        <v>463</v>
-      </c>
-      <c r="C176" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>464</v>
-      </c>
-      <c r="C177" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>465</v>
-      </c>
-      <c r="C178" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>466</v>
-      </c>
-      <c r="C179" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>467</v>
-      </c>
-      <c r="C180" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>179</v>
-      </c>
-      <c r="B181" t="s">
-        <v>468</v>
-      </c>
-      <c r="C181" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>180</v>
-      </c>
-      <c r="B182" t="s">
-        <v>469</v>
-      </c>
-      <c r="C182" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>181</v>
-      </c>
-      <c r="B183" t="s">
-        <v>470</v>
-      </c>
-      <c r="C183" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>182</v>
-      </c>
-      <c r="B184" t="s">
-        <v>471</v>
-      </c>
-      <c r="C184" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>183</v>
-      </c>
-      <c r="B185" t="s">
-        <v>472</v>
-      </c>
-      <c r="C185" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
-        <v>184</v>
-      </c>
-      <c r="B186" t="s">
-        <v>473</v>
-      </c>
-      <c r="C186" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>185</v>
-      </c>
-      <c r="B187" t="s">
-        <v>474</v>
-      </c>
-      <c r="C187" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>186</v>
-      </c>
-      <c r="B188" t="s">
-        <v>475</v>
-      </c>
-      <c r="C188" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>187</v>
-      </c>
-      <c r="B189" t="s">
-        <v>476</v>
-      </c>
-      <c r="C189" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>188</v>
-      </c>
-      <c r="B190" t="s">
-        <v>477</v>
-      </c>
-      <c r="C190" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>189</v>
-      </c>
-      <c r="B191" t="s">
-        <v>478</v>
-      </c>
-      <c r="C191" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>190</v>
-      </c>
-      <c r="B192" t="s">
-        <v>479</v>
-      </c>
-      <c r="C192" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>191</v>
-      </c>
-      <c r="B193" t="s">
-        <v>480</v>
-      </c>
-      <c r="C193" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
-        <v>192</v>
-      </c>
-      <c r="B194" t="s">
-        <v>481</v>
-      </c>
-      <c r="C194" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
-        <v>193</v>
-      </c>
-      <c r="B195" t="s">
-        <v>482</v>
-      </c>
-      <c r="C195" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>194</v>
-      </c>
-      <c r="B196" t="s">
-        <v>483</v>
-      </c>
-      <c r="C196" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>195</v>
-      </c>
-      <c r="B197" t="s">
-        <v>484</v>
-      </c>
-      <c r="C197" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>196</v>
-      </c>
-      <c r="B198" t="s">
-        <v>485</v>
-      </c>
-      <c r="C198" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>197</v>
-      </c>
-      <c r="B199" t="s">
-        <v>486</v>
-      </c>
-      <c r="C199" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>198</v>
-      </c>
-      <c r="B200" t="s">
-        <v>487</v>
-      </c>
-      <c r="C200" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
-        <v>199</v>
-      </c>
-      <c r="B201" t="s">
-        <v>488</v>
-      </c>
-      <c r="C201" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>200</v>
-      </c>
-      <c r="B202" t="s">
-        <v>489</v>
-      </c>
-      <c r="C202" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
-        <v>201</v>
-      </c>
-      <c r="B203" t="s">
-        <v>490</v>
-      </c>
-      <c r="C203" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
-        <v>202</v>
-      </c>
-      <c r="B204" t="s">
-        <v>491</v>
-      </c>
-      <c r="C204" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>203</v>
-      </c>
-      <c r="B205" t="s">
-        <v>492</v>
-      </c>
-      <c r="C205" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
-        <v>204</v>
-      </c>
-      <c r="B206" t="s">
-        <v>493</v>
-      </c>
-      <c r="C206" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
-        <v>205</v>
-      </c>
-      <c r="B207" t="s">
-        <v>494</v>
-      </c>
-      <c r="C207" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" t="s">
-        <v>206</v>
-      </c>
-      <c r="B208" t="s">
-        <v>495</v>
-      </c>
-      <c r="C208" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>207</v>
-      </c>
-      <c r="B209" t="s">
-        <v>496</v>
-      </c>
-      <c r="C209" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
-        <v>208</v>
-      </c>
-      <c r="B210" t="s">
-        <v>497</v>
-      </c>
-      <c r="C210" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
-        <v>209</v>
-      </c>
-      <c r="B211" t="s">
-        <v>498</v>
-      </c>
-      <c r="C211" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>210</v>
-      </c>
-      <c r="B212" t="s">
-        <v>499</v>
-      </c>
-      <c r="C212" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
-        <v>211</v>
-      </c>
-      <c r="B213" t="s">
-        <v>500</v>
-      </c>
-      <c r="C213" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" t="s">
-        <v>212</v>
-      </c>
-      <c r="B214" t="s">
-        <v>501</v>
-      </c>
-      <c r="C214" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" t="s">
-        <v>213</v>
-      </c>
-      <c r="B215" t="s">
-        <v>502</v>
-      </c>
-      <c r="C215" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" t="s">
-        <v>214</v>
-      </c>
-      <c r="B216" t="s">
-        <v>503</v>
-      </c>
-      <c r="C216" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" t="s">
-        <v>215</v>
-      </c>
-      <c r="B217" t="s">
-        <v>504</v>
-      </c>
-      <c r="C217" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" t="s">
-        <v>216</v>
-      </c>
-      <c r="B218" t="s">
-        <v>505</v>
-      </c>
-      <c r="C218" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" t="s">
-        <v>217</v>
-      </c>
-      <c r="B219" t="s">
-        <v>506</v>
-      </c>
-      <c r="C219" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
-        <v>218</v>
-      </c>
-      <c r="B220" t="s">
-        <v>507</v>
-      </c>
-      <c r="C220" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
-        <v>219</v>
-      </c>
-      <c r="B221" t="s">
-        <v>508</v>
-      </c>
-      <c r="C221" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
-        <v>220</v>
-      </c>
-      <c r="B222" t="s">
-        <v>509</v>
-      </c>
-      <c r="C222" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
-        <v>221</v>
-      </c>
-      <c r="B223" t="s">
-        <v>510</v>
-      </c>
-      <c r="C223" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" t="s">
-        <v>222</v>
-      </c>
-      <c r="B224" t="s">
-        <v>511</v>
-      </c>
-      <c r="C224" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" t="s">
-        <v>223</v>
-      </c>
-      <c r="B225" t="s">
-        <v>512</v>
-      </c>
-      <c r="C225" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" t="s">
-        <v>224</v>
-      </c>
-      <c r="B226" t="s">
-        <v>513</v>
-      </c>
-      <c r="C226" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" t="s">
-        <v>225</v>
-      </c>
-      <c r="B227" t="s">
-        <v>514</v>
-      </c>
-      <c r="C227" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" t="s">
-        <v>226</v>
-      </c>
-      <c r="B228" t="s">
-        <v>515</v>
-      </c>
-      <c r="C228" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" t="s">
-        <v>227</v>
-      </c>
-      <c r="B229" t="s">
-        <v>516</v>
-      </c>
-      <c r="C229" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" t="s">
-        <v>228</v>
-      </c>
-      <c r="B230" t="s">
-        <v>517</v>
-      </c>
-      <c r="C230" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" t="s">
-        <v>229</v>
-      </c>
-      <c r="B231" t="s">
-        <v>518</v>
-      </c>
-      <c r="C231" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" t="s">
-        <v>230</v>
-      </c>
-      <c r="B232" t="s">
-        <v>519</v>
-      </c>
-      <c r="C232" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" t="s">
-        <v>231</v>
-      </c>
-      <c r="B233" t="s">
-        <v>520</v>
-      </c>
-      <c r="C233" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" t="s">
-        <v>232</v>
-      </c>
-      <c r="B234" t="s">
-        <v>521</v>
-      </c>
-      <c r="C234" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" t="s">
-        <v>233</v>
-      </c>
-      <c r="B235" t="s">
-        <v>522</v>
-      </c>
-      <c r="C235" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" t="s">
-        <v>234</v>
-      </c>
-      <c r="B236" t="s">
-        <v>523</v>
-      </c>
-      <c r="C236" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" t="s">
-        <v>235</v>
-      </c>
-      <c r="B237" t="s">
-        <v>524</v>
-      </c>
-      <c r="C237" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" t="s">
-        <v>236</v>
-      </c>
-      <c r="B238" t="s">
-        <v>525</v>
-      </c>
-      <c r="C238" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" t="s">
-        <v>237</v>
-      </c>
-      <c r="B239" t="s">
-        <v>526</v>
-      </c>
-      <c r="C239" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" t="s">
-        <v>238</v>
-      </c>
-      <c r="B240" t="s">
-        <v>527</v>
-      </c>
-      <c r="C240" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" t="s">
-        <v>239</v>
-      </c>
-      <c r="B241" t="s">
-        <v>528</v>
-      </c>
-      <c r="C241" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" t="s">
-        <v>240</v>
-      </c>
-      <c r="B242" t="s">
-        <v>529</v>
-      </c>
-      <c r="C242" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" t="s">
-        <v>241</v>
-      </c>
-      <c r="B243" t="s">
-        <v>530</v>
-      </c>
-      <c r="C243" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" t="s">
-        <v>242</v>
-      </c>
-      <c r="B244" t="s">
-        <v>531</v>
-      </c>
-      <c r="C244" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" t="s">
-        <v>243</v>
-      </c>
-      <c r="B245" t="s">
-        <v>532</v>
-      </c>
-      <c r="C245" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" t="s">
-        <v>244</v>
-      </c>
-      <c r="B246" t="s">
-        <v>533</v>
-      </c>
-      <c r="C246" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" t="s">
-        <v>245</v>
-      </c>
-      <c r="B247" t="s">
-        <v>534</v>
-      </c>
-      <c r="C247" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" t="s">
-        <v>246</v>
-      </c>
-      <c r="B248" t="s">
-        <v>535</v>
-      </c>
-      <c r="C248" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" t="s">
-        <v>247</v>
-      </c>
-      <c r="B249" t="s">
-        <v>536</v>
-      </c>
-      <c r="C249" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" t="s">
-        <v>248</v>
-      </c>
-      <c r="B250" t="s">
-        <v>537</v>
-      </c>
-      <c r="C250" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" t="s">
-        <v>249</v>
-      </c>
-      <c r="B251" t="s">
-        <v>538</v>
-      </c>
-      <c r="C251" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" t="s">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>539</v>
-      </c>
-      <c r="C252" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" t="s">
-        <v>251</v>
-      </c>
-      <c r="B253" t="s">
-        <v>540</v>
-      </c>
-      <c r="C253" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" t="s">
-        <v>252</v>
-      </c>
-      <c r="B254" t="s">
-        <v>541</v>
-      </c>
-      <c r="C254" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" t="s">
-        <v>253</v>
-      </c>
-      <c r="B255" t="s">
-        <v>542</v>
-      </c>
-      <c r="C255" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" t="s">
-        <v>254</v>
-      </c>
-      <c r="B256" t="s">
-        <v>543</v>
-      </c>
-      <c r="C256" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" t="s">
-        <v>255</v>
-      </c>
-      <c r="B257" t="s">
-        <v>544</v>
-      </c>
-      <c r="C257" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" t="s">
-        <v>256</v>
-      </c>
-      <c r="B258" t="s">
-        <v>545</v>
-      </c>
-      <c r="C258" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" t="s">
-        <v>257</v>
-      </c>
-      <c r="B259" t="s">
-        <v>546</v>
-      </c>
-      <c r="C259" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" t="s">
-        <v>258</v>
-      </c>
-      <c r="B260" t="s">
-        <v>547</v>
-      </c>
-      <c r="C260" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" t="s">
-        <v>259</v>
-      </c>
-      <c r="B261" t="s">
-        <v>548</v>
-      </c>
-      <c r="C261" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" t="s">
-        <v>260</v>
-      </c>
-      <c r="B262" t="s">
-        <v>549</v>
-      </c>
-      <c r="C262" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="s">
-        <v>261</v>
-      </c>
-      <c r="B263" t="s">
-        <v>550</v>
-      </c>
-      <c r="C263" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" t="s">
-        <v>262</v>
-      </c>
-      <c r="B264" t="s">
-        <v>551</v>
-      </c>
-      <c r="C264" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" t="s">
-        <v>263</v>
-      </c>
-      <c r="B265" t="s">
-        <v>552</v>
-      </c>
-      <c r="C265" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" t="s">
-        <v>17</v>
-      </c>
-      <c r="B266" t="s">
-        <v>307</v>
-      </c>
-      <c r="C266" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" t="s">
-        <v>264</v>
-      </c>
-      <c r="B267" t="s">
-        <v>553</v>
-      </c>
-      <c r="C267" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" t="s">
-        <v>265</v>
-      </c>
-      <c r="B268" t="s">
-        <v>554</v>
-      </c>
-      <c r="C268" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" t="s">
-        <v>266</v>
-      </c>
-      <c r="B269" t="s">
-        <v>555</v>
-      </c>
-      <c r="C269" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" t="s">
-        <v>267</v>
-      </c>
-      <c r="B270" t="s">
-        <v>556</v>
-      </c>
-      <c r="C270" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" t="s">
-        <v>268</v>
-      </c>
-      <c r="B271" t="s">
-        <v>557</v>
-      </c>
-      <c r="C271" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" t="s">
-        <v>269</v>
-      </c>
-      <c r="B272" t="s">
-        <v>558</v>
-      </c>
-      <c r="C272" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" t="s">
-        <v>104</v>
-      </c>
-      <c r="B273" t="s">
-        <v>364</v>
-      </c>
-      <c r="C273" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" t="s">
-        <v>270</v>
-      </c>
-      <c r="B274" t="s">
-        <v>559</v>
-      </c>
-      <c r="C274" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" t="s">
-        <v>271</v>
-      </c>
-      <c r="B275" t="s">
-        <v>560</v>
-      </c>
-      <c r="C275" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" t="s">
-        <v>272</v>
-      </c>
-      <c r="B276" t="s">
-        <v>561</v>
-      </c>
-      <c r="C276" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" t="s">
-        <v>273</v>
-      </c>
-      <c r="B277" t="s">
-        <v>562</v>
-      </c>
-      <c r="C277" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" t="s">
-        <v>274</v>
-      </c>
-      <c r="B278" t="s">
-        <v>563</v>
-      </c>
-      <c r="C278" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" t="s">
-        <v>275</v>
-      </c>
-      <c r="B279" t="s">
-        <v>564</v>
-      </c>
-      <c r="C279" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" t="s">
-        <v>276</v>
-      </c>
-      <c r="B280" t="s">
-        <v>565</v>
-      </c>
-      <c r="C280" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" t="s">
-        <v>277</v>
-      </c>
-      <c r="B281" t="s">
-        <v>566</v>
-      </c>
-      <c r="C281" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" t="s">
-        <v>278</v>
-      </c>
-      <c r="B282" t="s">
-        <v>567</v>
-      </c>
-      <c r="C282" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" t="s">
-        <v>279</v>
-      </c>
-      <c r="B283" t="s">
-        <v>568</v>
-      </c>
-      <c r="C283" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" t="s">
-        <v>280</v>
-      </c>
-      <c r="B284" t="s">
-        <v>569</v>
-      </c>
-      <c r="C284" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" t="s">
-        <v>281</v>
-      </c>
-      <c r="B285" t="s">
-        <v>570</v>
-      </c>
-      <c r="C285" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" t="s">
-        <v>282</v>
-      </c>
-      <c r="B286" t="s">
-        <v>571</v>
-      </c>
-      <c r="C286" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" t="s">
-        <v>74</v>
-      </c>
-      <c r="B287" t="s">
-        <v>572</v>
-      </c>
-      <c r="C287" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288" t="s">
-        <v>283</v>
-      </c>
-      <c r="B288" t="s">
-        <v>573</v>
-      </c>
-      <c r="C288" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" t="s">
-        <v>284</v>
-      </c>
-      <c r="B289" t="s">
-        <v>574</v>
-      </c>
-      <c r="C289" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290" t="s">
-        <v>285</v>
-      </c>
-      <c r="B290" t="s">
-        <v>575</v>
-      </c>
-      <c r="C290" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" t="s">
-        <v>286</v>
-      </c>
-      <c r="B291" t="s">
-        <v>576</v>
-      </c>
-      <c r="C291" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292" t="s">
-        <v>287</v>
-      </c>
-      <c r="B292" t="s">
-        <v>577</v>
-      </c>
-      <c r="C292" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" t="s">
-        <v>288</v>
-      </c>
-      <c r="B293" t="s">
-        <v>578</v>
-      </c>
-      <c r="C293" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" t="s">
-        <v>289</v>
-      </c>
-      <c r="B294" t="s">
-        <v>579</v>
-      </c>
-      <c r="C294" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" t="s">
-        <v>290</v>
-      </c>
-      <c r="B295" t="s">
-        <v>580</v>
-      </c>
-      <c r="C295" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296" t="s">
-        <v>291</v>
-      </c>
-      <c r="B296" t="s">
-        <v>581</v>
-      </c>
-      <c r="C296" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" t="s">
-        <v>292</v>
-      </c>
-      <c r="B297" t="s">
-        <v>582</v>
-      </c>
       <c r="C297" t="s">
-        <v>870</v>
+        <v>873</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1161</v>
       </c>
     </row>
   </sheetData>
